--- a/data/pca/factorExposure/factorExposure_2017-01-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.006142438028035658</v>
+        <v>0.01183572322198221</v>
       </c>
       <c r="C2">
-        <v>0.003947075207215371</v>
+        <v>0.03903177011435772</v>
       </c>
       <c r="D2">
-        <v>-0.04052741577741401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03197589558944155</v>
+      </c>
+      <c r="E2">
+        <v>-0.05336989389693206</v>
+      </c>
+      <c r="F2">
+        <v>0.009136278998084871</v>
+      </c>
+      <c r="G2">
+        <v>0.1051284600583583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04773403484783775</v>
+        <v>0.03830485456741547</v>
       </c>
       <c r="C3">
-        <v>-0.05793693567526882</v>
+        <v>0.09258195265260488</v>
       </c>
       <c r="D3">
-        <v>-0.09988597802387025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.018908884021472</v>
+      </c>
+      <c r="E3">
+        <v>-0.1053163019050009</v>
+      </c>
+      <c r="F3">
+        <v>0.01980623659649633</v>
+      </c>
+      <c r="G3">
+        <v>0.1346922827102024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04591620433810559</v>
+        <v>0.05459975505927449</v>
       </c>
       <c r="C4">
-        <v>-0.0221485000216827</v>
+        <v>0.0631554641791142</v>
       </c>
       <c r="D4">
-        <v>-0.06527177502209636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02636824228773562</v>
+      </c>
+      <c r="E4">
+        <v>-0.04972181055540491</v>
+      </c>
+      <c r="F4">
+        <v>0.003454529209027587</v>
+      </c>
+      <c r="G4">
+        <v>0.1013021390898953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01494431738072567</v>
+        <v>0.03274742720982775</v>
       </c>
       <c r="C6">
-        <v>-0.01767449241648393</v>
+        <v>0.04640685492739614</v>
       </c>
       <c r="D6">
-        <v>-0.05395417612304379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01890842312701419</v>
+      </c>
+      <c r="E6">
+        <v>-0.053808522245155</v>
+      </c>
+      <c r="F6">
+        <v>0.005158273310750672</v>
+      </c>
+      <c r="G6">
+        <v>0.08367086393191286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.008475556148308786</v>
+        <v>0.01976418833834626</v>
       </c>
       <c r="C7">
-        <v>-0.00903323894437684</v>
+        <v>0.03525527052862795</v>
       </c>
       <c r="D7">
-        <v>-0.03645558245988748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01530667966942621</v>
+      </c>
+      <c r="E7">
+        <v>-0.02519292699833603</v>
+      </c>
+      <c r="F7">
+        <v>-0.004700249825215371</v>
+      </c>
+      <c r="G7">
+        <v>0.1265694820436942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002342282851534531</v>
+        <v>0.003468310161071791</v>
       </c>
       <c r="C8">
-        <v>9.595022532271731e-05</v>
+        <v>0.01959383441566948</v>
       </c>
       <c r="D8">
-        <v>-0.001024523545872314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004470129259689986</v>
+      </c>
+      <c r="E8">
+        <v>-0.03678001681259455</v>
+      </c>
+      <c r="F8">
+        <v>0.002024984494043093</v>
+      </c>
+      <c r="G8">
+        <v>0.06880848409659569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02018970727760034</v>
+        <v>0.03274445599521324</v>
       </c>
       <c r="C9">
-        <v>-0.01302157587390161</v>
+        <v>0.0451901223827338</v>
       </c>
       <c r="D9">
-        <v>-0.04276153994487051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01724833987522126</v>
+      </c>
+      <c r="E9">
+        <v>-0.03474626697725682</v>
+      </c>
+      <c r="F9">
+        <v>-0.0008387654001720433</v>
+      </c>
+      <c r="G9">
+        <v>0.1011623181790517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1202563104104828</v>
+        <v>0.09656855350324577</v>
       </c>
       <c r="C10">
-        <v>0.06284327481538178</v>
+        <v>-0.1901552593801837</v>
       </c>
       <c r="D10">
-        <v>0.1656742631762991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0155972072993717</v>
+      </c>
+      <c r="E10">
+        <v>-0.01625795671919997</v>
+      </c>
+      <c r="F10">
+        <v>0.02307089481775241</v>
+      </c>
+      <c r="G10">
+        <v>0.05092234558541636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02491579980644957</v>
+        <v>0.03580318784679268</v>
       </c>
       <c r="C11">
-        <v>-0.03147944502599129</v>
+        <v>0.05192820786279268</v>
       </c>
       <c r="D11">
-        <v>-0.04598388041359422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002961754950254803</v>
+      </c>
+      <c r="E11">
+        <v>-0.02623532323460858</v>
+      </c>
+      <c r="F11">
+        <v>-0.01586817618864282</v>
+      </c>
+      <c r="G11">
+        <v>0.08191967766793923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02441423570771667</v>
+        <v>0.03763163629017429</v>
       </c>
       <c r="C12">
-        <v>-0.02273266780915097</v>
+        <v>0.04609508677009767</v>
       </c>
       <c r="D12">
-        <v>-0.04119844458868705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006914109476600512</v>
+      </c>
+      <c r="E12">
+        <v>-0.01523498589749842</v>
+      </c>
+      <c r="F12">
+        <v>-0.00355165480206127</v>
+      </c>
+      <c r="G12">
+        <v>0.07806981693240149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.00638029890037107</v>
+        <v>0.01159400919210926</v>
       </c>
       <c r="C13">
-        <v>0.002544631744468322</v>
+        <v>0.03414971856015041</v>
       </c>
       <c r="D13">
-        <v>-0.03747250995153653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02904436115902416</v>
+      </c>
+      <c r="E13">
+        <v>-0.05825911050040371</v>
+      </c>
+      <c r="F13">
+        <v>0.01478478075322711</v>
+      </c>
+      <c r="G13">
+        <v>0.1407052888514995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0006077772311594665</v>
+        <v>0.009152218536423135</v>
       </c>
       <c r="C14">
-        <v>-0.004957737445122999</v>
+        <v>0.02503262103753242</v>
       </c>
       <c r="D14">
-        <v>-0.0234307637362998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01130952396899199</v>
+      </c>
+      <c r="E14">
+        <v>-0.01890906695344931</v>
+      </c>
+      <c r="F14">
+        <v>0.005407089263064223</v>
+      </c>
+      <c r="G14">
+        <v>0.1149702692163343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.02137821817234703</v>
+        <v>0.0337956816596502</v>
       </c>
       <c r="C16">
-        <v>-0.02187151550460541</v>
+        <v>0.04450280072541785</v>
       </c>
       <c r="D16">
-        <v>-0.03070459991762568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002485332166798173</v>
+      </c>
+      <c r="E16">
+        <v>-0.02174489474828226</v>
+      </c>
+      <c r="F16">
+        <v>0.003353497919339695</v>
+      </c>
+      <c r="G16">
+        <v>0.08627367186651679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01764717306989581</v>
+        <v>0.01783989506280271</v>
       </c>
       <c r="C19">
-        <v>-0.01670084174777482</v>
+        <v>0.04553107092697733</v>
       </c>
       <c r="D19">
-        <v>-0.04818017451644235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02217439848551453</v>
+      </c>
+      <c r="E19">
+        <v>-0.0963987985656497</v>
+      </c>
+      <c r="F19">
+        <v>0.008735291129765059</v>
+      </c>
+      <c r="G19">
+        <v>0.1352585289150712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.004792665836504687</v>
+        <v>0.01442072219231843</v>
       </c>
       <c r="C20">
-        <v>-0.008818388188377256</v>
+        <v>0.03693008598157896</v>
       </c>
       <c r="D20">
-        <v>-0.03523173454591719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0157411331065038</v>
+      </c>
+      <c r="E20">
+        <v>-0.04612973707389358</v>
+      </c>
+      <c r="F20">
+        <v>0.02463417809268633</v>
+      </c>
+      <c r="G20">
+        <v>0.1114460258565208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.001191257633460576</v>
+        <v>0.006821627509883338</v>
       </c>
       <c r="C21">
-        <v>-0.0015521038208279</v>
+        <v>0.02983701668529709</v>
       </c>
       <c r="D21">
-        <v>-0.03048533685940267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02143526322497141</v>
+      </c>
+      <c r="E21">
+        <v>-0.06327818436093803</v>
+      </c>
+      <c r="F21">
+        <v>0.01274926590947552</v>
+      </c>
+      <c r="G21">
+        <v>0.1510170398460678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001287043732175802</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.005419695632323132</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002506490351616959</v>
+      </c>
+      <c r="E22">
+        <v>-0.01943502290508037</v>
+      </c>
+      <c r="F22">
+        <v>-0.003840004606109412</v>
+      </c>
+      <c r="G22">
+        <v>0.003883266841466919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001262812451440649</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.005329361707564753</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002492532218438595</v>
+      </c>
+      <c r="E23">
+        <v>-0.01935492190875791</v>
+      </c>
+      <c r="F23">
+        <v>-0.003587641712031115</v>
+      </c>
+      <c r="G23">
+        <v>0.003744802253611028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01569241179600224</v>
+        <v>0.02997500492066509</v>
       </c>
       <c r="C24">
-        <v>-0.02052431536804105</v>
+        <v>0.04883665430241033</v>
       </c>
       <c r="D24">
-        <v>-0.03986207549465749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007571743711676173</v>
+      </c>
+      <c r="E24">
+        <v>-0.02017234203425468</v>
+      </c>
+      <c r="F24">
+        <v>-0.006544735217611717</v>
+      </c>
+      <c r="G24">
+        <v>0.08425711778412352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03273737412637121</v>
+        <v>0.04303469211580055</v>
       </c>
       <c r="C25">
-        <v>-0.02548583934052105</v>
+        <v>0.05613081473457686</v>
       </c>
       <c r="D25">
-        <v>-0.05242083969926193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01167975835981385</v>
+      </c>
+      <c r="E25">
+        <v>-0.01305104705471174</v>
+      </c>
+      <c r="F25">
+        <v>-0.006139456235039617</v>
+      </c>
+      <c r="G25">
+        <v>0.09273427786458972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004268255169306349</v>
+        <v>0.01460473312522761</v>
       </c>
       <c r="C26">
-        <v>0.01695303696269567</v>
+        <v>0.008718186297125306</v>
       </c>
       <c r="D26">
-        <v>-0.01343683615639884</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02445969921953037</v>
+      </c>
+      <c r="E26">
+        <v>-0.01489396367367462</v>
+      </c>
+      <c r="F26">
+        <v>0.005781317153282784</v>
+      </c>
+      <c r="G26">
+        <v>0.08435689560578499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1510861231658802</v>
+        <v>0.1269181512802024</v>
       </c>
       <c r="C28">
-        <v>0.08137158031766552</v>
+        <v>-0.2444791988774184</v>
       </c>
       <c r="D28">
-        <v>0.1829125037386836</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007276396325461834</v>
+      </c>
+      <c r="E28">
+        <v>0.00425743434444154</v>
+      </c>
+      <c r="F28">
+        <v>0.02188125451933817</v>
+      </c>
+      <c r="G28">
+        <v>0.04350841335480252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006580655099322812</v>
+        <v>0.008058125289386075</v>
       </c>
       <c r="C29">
-        <v>-0.004331215496179742</v>
+        <v>0.02098754840974833</v>
       </c>
       <c r="D29">
-        <v>-0.01922500037634773</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01019110345337794</v>
+      </c>
+      <c r="E29">
+        <v>-0.01183144880653608</v>
+      </c>
+      <c r="F29">
+        <v>0.00974579414215601</v>
+      </c>
+      <c r="G29">
+        <v>0.1055116335161087</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02534184135605981</v>
+        <v>0.03892550668498134</v>
       </c>
       <c r="C30">
-        <v>-0.02422710748583383</v>
+        <v>0.06291590388545516</v>
       </c>
       <c r="D30">
-        <v>-0.08085791131045787</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03115736446031759</v>
+      </c>
+      <c r="E30">
+        <v>-0.07681733323569423</v>
+      </c>
+      <c r="F30">
+        <v>-0.01844729432028434</v>
+      </c>
+      <c r="G30">
+        <v>0.1224127145072419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03027967628621723</v>
+        <v>0.05330995753369466</v>
       </c>
       <c r="C31">
-        <v>-0.009805633756910067</v>
+        <v>0.03705588752605131</v>
       </c>
       <c r="D31">
-        <v>-0.0147806380745128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004078471089953874</v>
+      </c>
+      <c r="E31">
+        <v>-0.0001676361872433067</v>
+      </c>
+      <c r="F31">
+        <v>0.034273249073616</v>
+      </c>
+      <c r="G31">
+        <v>0.09704491734571291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0002873527510420671</v>
+        <v>0.001858241727643323</v>
       </c>
       <c r="C32">
-        <v>-0.01964290790580109</v>
+        <v>0.01827845317341397</v>
       </c>
       <c r="D32">
-        <v>-0.01974405725626306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.001426042667171052</v>
+      </c>
+      <c r="E32">
+        <v>-0.05078409800977089</v>
+      </c>
+      <c r="F32">
+        <v>-0.02612149234198461</v>
+      </c>
+      <c r="G32">
+        <v>0.07325272301441298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0182910776224485</v>
+        <v>0.02653724263736335</v>
       </c>
       <c r="C33">
-        <v>-0.02046253989428861</v>
+        <v>0.04595269884278477</v>
       </c>
       <c r="D33">
-        <v>-0.05103209297201421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01785526381011539</v>
+      </c>
+      <c r="E33">
+        <v>-0.06473956575053799</v>
+      </c>
+      <c r="F33">
+        <v>-0.005819499640432129</v>
+      </c>
+      <c r="G33">
+        <v>0.1575939394391181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.03719867374292046</v>
+        <v>0.04206303742575524</v>
       </c>
       <c r="C34">
-        <v>-0.04067418283418715</v>
+        <v>0.05943159983276791</v>
       </c>
       <c r="D34">
-        <v>-0.0443617767954002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004061267269042113</v>
+      </c>
+      <c r="E34">
+        <v>-0.0182460991239053</v>
+      </c>
+      <c r="F34">
+        <v>-0.01929125577394923</v>
+      </c>
+      <c r="G34">
+        <v>0.08424336655440705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008637159960077943</v>
+        <v>0.01521570033128235</v>
       </c>
       <c r="C36">
-        <v>0.008575543252605396</v>
+        <v>0.005302856818757785</v>
       </c>
       <c r="D36">
-        <v>-0.003784892952610894</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0133936831907075</v>
+      </c>
+      <c r="E36">
+        <v>-0.01793270204458078</v>
+      </c>
+      <c r="F36">
+        <v>0.006991091670138345</v>
+      </c>
+      <c r="G36">
+        <v>0.09726306771033537</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02504401005196983</v>
+        <v>0.03045521487656386</v>
       </c>
       <c r="C38">
-        <v>-0.02174072520541392</v>
+        <v>0.02236734711140189</v>
       </c>
       <c r="D38">
-        <v>-0.01290116453415823</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.006808875180710916</v>
+      </c>
+      <c r="E38">
+        <v>-0.01537126363015685</v>
+      </c>
+      <c r="F38">
+        <v>0.01443726115134377</v>
+      </c>
+      <c r="G38">
+        <v>0.09266660970082966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01517207500436575</v>
+        <v>0.0368843616233271</v>
       </c>
       <c r="C39">
-        <v>-0.0389124536796782</v>
+        <v>0.07602722812485878</v>
       </c>
       <c r="D39">
-        <v>-0.07926680847312483</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01287027579903956</v>
+      </c>
+      <c r="E39">
+        <v>-0.03696229026723229</v>
+      </c>
+      <c r="F39">
+        <v>-0.01480477320482228</v>
+      </c>
+      <c r="G39">
+        <v>0.09334666980735382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0154864872367138</v>
+        <v>0.01362049198159497</v>
       </c>
       <c r="C40">
-        <v>-0.003995227472270444</v>
+        <v>0.03318212302852832</v>
       </c>
       <c r="D40">
-        <v>-0.02223735948178458</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01570131757891364</v>
+      </c>
+      <c r="E40">
+        <v>-0.03848264880610179</v>
+      </c>
+      <c r="F40">
+        <v>0.01748350267940142</v>
+      </c>
+      <c r="G40">
+        <v>0.1157665485394253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01090825293648032</v>
+        <v>0.01905907425395152</v>
       </c>
       <c r="C41">
-        <v>0.004917029334746829</v>
+        <v>-0.001703782327807395</v>
       </c>
       <c r="D41">
-        <v>0.00532475982300293</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005421236187370141</v>
+      </c>
+      <c r="E41">
+        <v>-0.01462513066617147</v>
+      </c>
+      <c r="F41">
+        <v>0.01360991187707327</v>
+      </c>
+      <c r="G41">
+        <v>0.09228490805332094</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006043089587463559</v>
+        <v>0.005058281771313875</v>
       </c>
       <c r="C42">
-        <v>0.0455690155893939</v>
+        <v>0.02861787538680022</v>
       </c>
       <c r="D42">
-        <v>-0.09726986969102064</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08443403998314541</v>
+      </c>
+      <c r="E42">
+        <v>0.006755262337256632</v>
+      </c>
+      <c r="F42">
+        <v>0.03392224031042661</v>
+      </c>
+      <c r="G42">
+        <v>-0.01312907497424841</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02492964505414623</v>
+        <v>0.03378822122891025</v>
       </c>
       <c r="C43">
-        <v>-0.003237321893715315</v>
+        <v>0.01235883291201936</v>
       </c>
       <c r="D43">
-        <v>-0.004095985517201133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006936148293542866</v>
+      </c>
+      <c r="E43">
+        <v>-0.03255377830097201</v>
+      </c>
+      <c r="F43">
+        <v>0.01029699893137507</v>
+      </c>
+      <c r="G43">
+        <v>0.121675799357224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.006342142577907856</v>
+        <v>0.01316994162556026</v>
       </c>
       <c r="C44">
-        <v>-0.02483118104134362</v>
+        <v>0.05178055024841492</v>
       </c>
       <c r="D44">
-        <v>-0.04669646538837337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.008162547212542967</v>
+      </c>
+      <c r="E44">
+        <v>-0.03743861287745021</v>
+      </c>
+      <c r="F44">
+        <v>0.01791254919338367</v>
+      </c>
+      <c r="G44">
+        <v>0.1204257366182635</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.004327845358444007</v>
+        <v>0.008970004374377619</v>
       </c>
       <c r="C46">
-        <v>0.008639952674669328</v>
+        <v>0.01391647809722113</v>
       </c>
       <c r="D46">
-        <v>-0.007633291135147455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0130984409895556</v>
+      </c>
+      <c r="E46">
+        <v>-0.003390374526103599</v>
+      </c>
+      <c r="F46">
+        <v>0.01283856814251518</v>
+      </c>
+      <c r="G46">
+        <v>0.1089852966341137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05089020075428303</v>
+        <v>0.08067493561598803</v>
       </c>
       <c r="C47">
-        <v>-0.04035308891626414</v>
+        <v>0.06849696183621863</v>
       </c>
       <c r="D47">
-        <v>-0.04612309118133816</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00488903696685535</v>
+      </c>
+      <c r="E47">
+        <v>0.006631668718018731</v>
+      </c>
+      <c r="F47">
+        <v>0.0428105904606912</v>
+      </c>
+      <c r="G47">
+        <v>0.09041110123888943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008144110752677392</v>
+        <v>0.01811558188228023</v>
       </c>
       <c r="C48">
-        <v>-0.002134719177683799</v>
+        <v>0.009551439125811811</v>
       </c>
       <c r="D48">
-        <v>-0.002747226023629666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002977512129373308</v>
+      </c>
+      <c r="E48">
+        <v>-0.0123697060018682</v>
+      </c>
+      <c r="F48">
+        <v>0.01807829924577644</v>
+      </c>
+      <c r="G48">
+        <v>0.1059986193951165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05672399049816606</v>
+        <v>0.07436274682677861</v>
       </c>
       <c r="C50">
-        <v>-0.03682607805241574</v>
+        <v>0.06739357674928947</v>
       </c>
       <c r="D50">
-        <v>-0.04037979423868286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001763170659609439</v>
+      </c>
+      <c r="E50">
+        <v>0.00347737921893608</v>
+      </c>
+      <c r="F50">
+        <v>0.04397349889277849</v>
+      </c>
+      <c r="G50">
+        <v>0.1041534353426584</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007190853346470283</v>
+        <v>0.0116959729430282</v>
       </c>
       <c r="C51">
-        <v>-0.01192949169824817</v>
+        <v>0.03353203283907567</v>
       </c>
       <c r="D51">
-        <v>-0.03133306857773956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01196311213770774</v>
+      </c>
+      <c r="E51">
+        <v>-0.03843096035997293</v>
+      </c>
+      <c r="F51">
+        <v>-0.009847705612519998</v>
+      </c>
+      <c r="G51">
+        <v>0.1170347550528003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07384371475668863</v>
+        <v>0.08353293579055118</v>
       </c>
       <c r="C53">
-        <v>-0.0544879035841272</v>
+        <v>0.08193929511337794</v>
       </c>
       <c r="D53">
-        <v>-0.06468701898598361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004053640087008553</v>
+      </c>
+      <c r="E53">
+        <v>0.02909887249612601</v>
+      </c>
+      <c r="F53">
+        <v>0.04853006445153695</v>
+      </c>
+      <c r="G53">
+        <v>0.09590449189279306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02415645230120745</v>
+        <v>0.03151730305402736</v>
       </c>
       <c r="C54">
-        <v>-0.004910706578955872</v>
+        <v>0.01392476560064967</v>
       </c>
       <c r="D54">
-        <v>0.005321773024107003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0003163742777901762</v>
+      </c>
+      <c r="E54">
+        <v>-0.02476115685610423</v>
+      </c>
+      <c r="F54">
+        <v>0.009564653600081711</v>
+      </c>
+      <c r="G54">
+        <v>0.1092590137024645</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0539203151158055</v>
+        <v>0.07634518298387981</v>
       </c>
       <c r="C55">
-        <v>-0.04414627441650723</v>
+        <v>0.06703449262678533</v>
       </c>
       <c r="D55">
-        <v>-0.0521352011021765</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0055801123290277</v>
+      </c>
+      <c r="E55">
+        <v>0.02914017444647734</v>
+      </c>
+      <c r="F55">
+        <v>0.04702755233930726</v>
+      </c>
+      <c r="G55">
+        <v>0.07267140920165939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1169340638638143</v>
+        <v>0.1385935037829921</v>
       </c>
       <c r="C56">
-        <v>-0.08218829529696819</v>
+        <v>0.1033972031865054</v>
       </c>
       <c r="D56">
-        <v>-0.08570322751529989</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01310161066763701</v>
+      </c>
+      <c r="E56">
+        <v>0.03618421143241479</v>
+      </c>
+      <c r="F56">
+        <v>0.05736307604060403</v>
+      </c>
+      <c r="G56">
+        <v>0.05894367059602863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01042330243213897</v>
+        <v>0.003860070053277383</v>
       </c>
       <c r="C57">
-        <v>0.01175515319353972</v>
+        <v>0.003666201358968506</v>
       </c>
       <c r="D57">
-        <v>-0.02014758255000089</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02293723115592363</v>
+      </c>
+      <c r="E57">
+        <v>-0.02447015810839731</v>
+      </c>
+      <c r="F57">
+        <v>0.0003454921590772373</v>
+      </c>
+      <c r="G57">
+        <v>0.0142853444624089</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04522664404911187</v>
+        <v>0.03995106115260313</v>
       </c>
       <c r="C58">
-        <v>-0.0495983605755585</v>
+        <v>0.02785278558044208</v>
       </c>
       <c r="D58">
-        <v>-0.06637588977215281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0344409042873112</v>
+      </c>
+      <c r="E58">
+        <v>-0.763071302107298</v>
+      </c>
+      <c r="F58">
+        <v>0.5459398703895589</v>
+      </c>
+      <c r="G58">
+        <v>-0.278225877366777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1940422862726758</v>
+        <v>0.1553273820564111</v>
       </c>
       <c r="C59">
-        <v>0.06696588964991232</v>
+        <v>-0.2111039219438937</v>
       </c>
       <c r="D59">
-        <v>0.1840568974032387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01086597770345457</v>
+      </c>
+      <c r="E59">
+        <v>-0.02144583875787922</v>
+      </c>
+      <c r="F59">
+        <v>0.006044775404145219</v>
+      </c>
+      <c r="G59">
+        <v>0.03353977728824147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3032380066109222</v>
+        <v>0.2881181631475539</v>
       </c>
       <c r="C60">
-        <v>-0.1123076879088409</v>
+        <v>0.106378638293254</v>
       </c>
       <c r="D60">
-        <v>-0.1208609978181067</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01612729120762722</v>
+      </c>
+      <c r="E60">
+        <v>-0.1074541603025161</v>
+      </c>
+      <c r="F60">
+        <v>-0.3084677075500367</v>
+      </c>
+      <c r="G60">
+        <v>-0.1832194226076502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.02011665835491818</v>
+        <v>0.0394693083102883</v>
       </c>
       <c r="C61">
-        <v>-0.03474542325439234</v>
+        <v>0.06262176003025598</v>
       </c>
       <c r="D61">
-        <v>-0.05820739208292313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006739953379099721</v>
+      </c>
+      <c r="E61">
+        <v>-0.03531860450630992</v>
+      </c>
+      <c r="F61">
+        <v>-0.009227115458783412</v>
+      </c>
+      <c r="G61">
+        <v>0.09097716617326049</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008021407312700519</v>
+        <v>0.01457124086517625</v>
       </c>
       <c r="C63">
-        <v>-0.0101098710751508</v>
+        <v>0.02730742998127452</v>
       </c>
       <c r="D63">
-        <v>-0.02931845808777227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009090984700013727</v>
+      </c>
+      <c r="E63">
+        <v>-0.01051797678869849</v>
+      </c>
+      <c r="F63">
+        <v>0.01351179292981415</v>
+      </c>
+      <c r="G63">
+        <v>0.09475000940191526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.03955042353459404</v>
+        <v>0.05007190061312195</v>
       </c>
       <c r="C64">
-        <v>-0.02178622556907776</v>
+        <v>0.04509182326922475</v>
       </c>
       <c r="D64">
-        <v>-0.03382970161256064</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006164288672149038</v>
+      </c>
+      <c r="E64">
+        <v>-0.009290948222120957</v>
+      </c>
+      <c r="F64">
+        <v>-0.00932771301768234</v>
+      </c>
+      <c r="G64">
+        <v>0.0942811750132171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07077135536700482</v>
+        <v>0.07142610076181334</v>
       </c>
       <c r="C65">
-        <v>-0.04298579689922623</v>
+        <v>0.05418108952995512</v>
       </c>
       <c r="D65">
-        <v>-0.08020189549525418</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01834751133278378</v>
+      </c>
+      <c r="E65">
+        <v>-0.05797867355891462</v>
+      </c>
+      <c r="F65">
+        <v>-0.01015899514581917</v>
+      </c>
+      <c r="G65">
+        <v>0.04210697433259012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.02941073662535992</v>
+        <v>0.04805536311073811</v>
       </c>
       <c r="C66">
-        <v>-0.066278824390471</v>
+        <v>0.1017234681295552</v>
       </c>
       <c r="D66">
-        <v>-0.1196657630315686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01385835949701691</v>
+      </c>
+      <c r="E66">
+        <v>-0.06170018290258514</v>
+      </c>
+      <c r="F66">
+        <v>-0.02387413579483132</v>
+      </c>
+      <c r="G66">
+        <v>0.0999368152126448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05135571034088576</v>
+        <v>0.05464087235727905</v>
       </c>
       <c r="C67">
-        <v>-0.02879673342540431</v>
+        <v>0.02897135210400484</v>
       </c>
       <c r="D67">
-        <v>-0.02243082558268344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005674861562869045</v>
+      </c>
+      <c r="E67">
+        <v>-0.003226509058281577</v>
+      </c>
+      <c r="F67">
+        <v>0.009261260096994095</v>
+      </c>
+      <c r="G67">
+        <v>0.07858861841239792</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1806269708022956</v>
+        <v>0.1547553778512477</v>
       </c>
       <c r="C68">
-        <v>0.1087348325265566</v>
+        <v>-0.2722986877534641</v>
       </c>
       <c r="D68">
-        <v>0.2125805685941486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004490115055956465</v>
+      </c>
+      <c r="E68">
+        <v>0.01048815416299105</v>
+      </c>
+      <c r="F68">
+        <v>0.04680326603015555</v>
+      </c>
+      <c r="G68">
+        <v>0.01448752867505949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.05859047202071548</v>
+        <v>0.08330915040160164</v>
       </c>
       <c r="C69">
-        <v>-0.04289076227314627</v>
+        <v>0.0710647488839362</v>
       </c>
       <c r="D69">
-        <v>-0.04010885105657417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008877759740984856</v>
+      </c>
+      <c r="E69">
+        <v>0.01738912195813141</v>
+      </c>
+      <c r="F69">
+        <v>0.02236592874168944</v>
+      </c>
+      <c r="G69">
+        <v>0.1024446470618549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1676204797970658</v>
+        <v>0.1414682604702011</v>
       </c>
       <c r="C71">
-        <v>0.07977475301959172</v>
+        <v>-0.2334977939166196</v>
       </c>
       <c r="D71">
-        <v>0.1798109069964303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003260306606136469</v>
+      </c>
+      <c r="E71">
+        <v>-0.02415520570682901</v>
+      </c>
+      <c r="F71">
+        <v>0.02933232084893654</v>
+      </c>
+      <c r="G71">
+        <v>0.05935839389759437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0631940804817555</v>
+        <v>0.08686491270540808</v>
       </c>
       <c r="C72">
-        <v>-0.05623568747291441</v>
+        <v>0.06474534146783671</v>
       </c>
       <c r="D72">
-        <v>-0.05833988954855184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007475967280851744</v>
+      </c>
+      <c r="E72">
+        <v>-0.007714482556639359</v>
+      </c>
+      <c r="F72">
+        <v>-0.02939037928480547</v>
+      </c>
+      <c r="G72">
+        <v>0.08721221935114572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4201791003518942</v>
+        <v>0.3696278521232649</v>
       </c>
       <c r="C73">
-        <v>-0.1652465208958647</v>
+        <v>0.1108264678284941</v>
       </c>
       <c r="D73">
-        <v>-0.1866283883137161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02995808526302576</v>
+      </c>
+      <c r="E73">
+        <v>-0.2505500930100399</v>
+      </c>
+      <c r="F73">
+        <v>-0.5304834164864848</v>
+      </c>
+      <c r="G73">
+        <v>-0.3260295705794096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08831269817448394</v>
+        <v>0.1062614457593418</v>
       </c>
       <c r="C74">
-        <v>-0.08307004577001144</v>
+        <v>0.105531933815016</v>
       </c>
       <c r="D74">
-        <v>-0.09792199739607921</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009367136103840134</v>
+      </c>
+      <c r="E74">
+        <v>0.008526352322175346</v>
+      </c>
+      <c r="F74">
+        <v>0.0553559571625968</v>
+      </c>
+      <c r="G74">
+        <v>0.07855863178127098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.210038474195932</v>
+        <v>0.2494705887820756</v>
       </c>
       <c r="C75">
-        <v>-0.1372312981849368</v>
+        <v>0.1468436391100492</v>
       </c>
       <c r="D75">
-        <v>-0.1335141114220044</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03226714191314049</v>
+      </c>
+      <c r="E75">
+        <v>0.09610278159240468</v>
+      </c>
+      <c r="F75">
+        <v>0.1325307036149558</v>
+      </c>
+      <c r="G75">
+        <v>0.02047064626518173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.102025622274792</v>
+        <v>0.1177941103768012</v>
       </c>
       <c r="C76">
-        <v>-0.09221288552950603</v>
+        <v>0.1062849142512569</v>
       </c>
       <c r="D76">
-        <v>-0.09588273404266362</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01802122543473943</v>
+      </c>
+      <c r="E76">
+        <v>0.03931136379124371</v>
+      </c>
+      <c r="F76">
+        <v>0.07967892780090639</v>
+      </c>
+      <c r="G76">
+        <v>0.07256195503861508</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04354746660875424</v>
+        <v>0.06852266683498572</v>
       </c>
       <c r="C77">
-        <v>-0.03444418294070437</v>
+        <v>0.04854062895270343</v>
       </c>
       <c r="D77">
-        <v>-0.06051504575215025</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.011857658084273</v>
+      </c>
+      <c r="E77">
+        <v>-0.06583516583027789</v>
+      </c>
+      <c r="F77">
+        <v>0.001535789028543015</v>
+      </c>
+      <c r="G77">
+        <v>0.07970437503601284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.03375111979557705</v>
+        <v>0.03910524153922899</v>
       </c>
       <c r="C78">
-        <v>-0.03124379527200194</v>
+        <v>0.05008724687907332</v>
       </c>
       <c r="D78">
-        <v>-0.0493504329896861</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.008409877444816112</v>
+      </c>
+      <c r="E78">
+        <v>-0.04964587978744051</v>
+      </c>
+      <c r="F78">
+        <v>-0.02775025450231813</v>
+      </c>
+      <c r="G78">
+        <v>0.09414433514166708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001737604206176265</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.001121564663870833</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0008050936532686156</v>
+      </c>
+      <c r="E79">
+        <v>-0.007318221374687766</v>
+      </c>
+      <c r="F79">
+        <v>0.0007888637002519465</v>
+      </c>
+      <c r="G79">
+        <v>0.006560415772558926</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04061506616845962</v>
+        <v>0.04107686360609721</v>
       </c>
       <c r="C80">
-        <v>-0.03218799875432012</v>
+        <v>0.04730736240976476</v>
       </c>
       <c r="D80">
-        <v>-0.0642882247093142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01479827443171787</v>
+      </c>
+      <c r="E80">
+        <v>-0.0386137796193306</v>
+      </c>
+      <c r="F80">
+        <v>0.002471202171590995</v>
+      </c>
+      <c r="G80">
+        <v>0.05853258191716643</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1122200281676835</v>
+        <v>0.1394237450284959</v>
       </c>
       <c r="C81">
-        <v>-0.07276195193560153</v>
+        <v>0.09048691198676732</v>
       </c>
       <c r="D81">
-        <v>-0.07066237042313431</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01575216828154291</v>
+      </c>
+      <c r="E81">
+        <v>0.0588521569843769</v>
+      </c>
+      <c r="F81">
+        <v>0.1044262826146635</v>
+      </c>
+      <c r="G81">
+        <v>0.03954471796323632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.0341292841829365</v>
+        <v>0.1647614728629645</v>
       </c>
       <c r="C82">
-        <v>-0.02077817977396832</v>
+        <v>0.111833893263384</v>
       </c>
       <c r="D82">
-        <v>-0.02295005132415677</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01648607528225168</v>
+      </c>
+      <c r="E82">
+        <v>0.164093170325796</v>
+      </c>
+      <c r="F82">
+        <v>0.05073278455037161</v>
+      </c>
+      <c r="G82">
+        <v>0.01403701810215752</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01950820717132911</v>
+        <v>0.03324132516671086</v>
       </c>
       <c r="C83">
-        <v>-0.009514017369781386</v>
+        <v>0.02952191318989453</v>
       </c>
       <c r="D83">
-        <v>-0.01845952770222804</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007680998572221543</v>
+      </c>
+      <c r="E83">
+        <v>-0.0412085285104869</v>
+      </c>
+      <c r="F83">
+        <v>-0.02961590276979546</v>
+      </c>
+      <c r="G83">
+        <v>0.05370256858296155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1998087364647023</v>
+        <v>0.2101534203983818</v>
       </c>
       <c r="C85">
-        <v>-0.1352920716135211</v>
+        <v>0.1408414585691078</v>
       </c>
       <c r="D85">
-        <v>-0.1563894606360042</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01769268889748281</v>
+      </c>
+      <c r="E85">
+        <v>0.1041708853063955</v>
+      </c>
+      <c r="F85">
+        <v>0.0658445275733279</v>
+      </c>
+      <c r="G85">
+        <v>-0.011635736665718</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007465441948428106</v>
+        <v>0.01153334367049516</v>
       </c>
       <c r="C86">
-        <v>-0.009373286188439051</v>
+        <v>0.02382108967268055</v>
       </c>
       <c r="D86">
-        <v>-0.02525339634014544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01365765679780903</v>
+      </c>
+      <c r="E86">
+        <v>-0.07251732927594237</v>
+      </c>
+      <c r="F86">
+        <v>-0.02084067728750238</v>
+      </c>
+      <c r="G86">
+        <v>0.172035970054929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.004552845174305037</v>
+        <v>0.02066380892472728</v>
       </c>
       <c r="C87">
-        <v>-0.002909275879470434</v>
+        <v>0.01456858068625375</v>
       </c>
       <c r="D87">
-        <v>-0.01914656280095235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01382275008322862</v>
+      </c>
+      <c r="E87">
+        <v>-0.1001498906821939</v>
+      </c>
+      <c r="F87">
+        <v>0.02291765567260213</v>
+      </c>
+      <c r="G87">
+        <v>0.1081002510767932</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.07263167759591765</v>
+        <v>0.09082024502269848</v>
       </c>
       <c r="C88">
-        <v>-0.01929195213130241</v>
+        <v>0.06593059493758617</v>
       </c>
       <c r="D88">
-        <v>-0.05606506903517779</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02296326638282199</v>
+      </c>
+      <c r="E88">
+        <v>-0.005973650937219349</v>
+      </c>
+      <c r="F88">
+        <v>0.0159276151530421</v>
+      </c>
+      <c r="G88">
+        <v>0.1107819028155267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2784639408237646</v>
+        <v>0.2257853957132772</v>
       </c>
       <c r="C89">
-        <v>0.1455096644726336</v>
+        <v>-0.3709603640953572</v>
       </c>
       <c r="D89">
-        <v>0.3076874446062744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0001745000023059598</v>
+      </c>
+      <c r="E89">
+        <v>0.02759970469432253</v>
+      </c>
+      <c r="F89">
+        <v>0.01592347350282533</v>
+      </c>
+      <c r="G89">
+        <v>0.07723199674690068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2425715239476304</v>
+        <v>0.2061070082423294</v>
       </c>
       <c r="C90">
-        <v>0.1274159458007046</v>
+        <v>-0.3186505818140599</v>
       </c>
       <c r="D90">
-        <v>0.2773408011851498</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005161769388558739</v>
+      </c>
+      <c r="E90">
+        <v>0.01632127569770554</v>
+      </c>
+      <c r="F90">
+        <v>0.05052901756374586</v>
+      </c>
+      <c r="G90">
+        <v>0.04405142503860279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1638256609938423</v>
+        <v>0.1870618017521229</v>
       </c>
       <c r="C91">
-        <v>-0.09945919295322572</v>
+        <v>0.1334388088087414</v>
       </c>
       <c r="D91">
-        <v>-0.08753930613059602</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02311570559181802</v>
+      </c>
+      <c r="E91">
+        <v>0.07833694780032661</v>
+      </c>
+      <c r="F91">
+        <v>0.1029335376831585</v>
+      </c>
+      <c r="G91">
+        <v>0.04864581582786932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2236593536907027</v>
+        <v>0.1913619638683839</v>
       </c>
       <c r="C92">
-        <v>0.06218097499382732</v>
+        <v>-0.262397815363016</v>
       </c>
       <c r="D92">
-        <v>0.2296641554471741</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03842471136161114</v>
+      </c>
+      <c r="E92">
+        <v>-0.02145943603329093</v>
+      </c>
+      <c r="F92">
+        <v>0.05140688620710808</v>
+      </c>
+      <c r="G92">
+        <v>0.09329653191470864</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2606001329241506</v>
+        <v>0.2288018697931737</v>
       </c>
       <c r="C93">
-        <v>0.1075422039354145</v>
+        <v>-0.3157918877623351</v>
       </c>
       <c r="D93">
-        <v>0.260350822635608</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01077738707114772</v>
+      </c>
+      <c r="E93">
+        <v>-0.0008093139901848872</v>
+      </c>
+      <c r="F93">
+        <v>0.03770284316417517</v>
+      </c>
+      <c r="G93">
+        <v>0.06056289614445935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2162961189447576</v>
+        <v>0.3319832140932033</v>
       </c>
       <c r="C94">
-        <v>-0.1133941438569777</v>
+        <v>0.2058954443697516</v>
       </c>
       <c r="D94">
-        <v>-0.1327485064189291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02756382649541628</v>
+      </c>
+      <c r="E94">
+        <v>0.3713757658888183</v>
+      </c>
+      <c r="F94">
+        <v>0.4110633646041327</v>
+      </c>
+      <c r="G94">
+        <v>-0.3671353666754733</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.05916482855834944</v>
+        <v>0.09155511178586039</v>
       </c>
       <c r="C95">
-        <v>-0.0802745627071791</v>
+        <v>0.07304053104297181</v>
       </c>
       <c r="D95">
-        <v>-0.1051348209902167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.007725022806952682</v>
+      </c>
+      <c r="E95">
+        <v>-0.1209130791973694</v>
+      </c>
+      <c r="F95">
+        <v>-0.1567894452694139</v>
+      </c>
+      <c r="G95">
+        <v>0.0617411410732485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2045118666588253</v>
+        <v>0.192737457837564</v>
       </c>
       <c r="C98">
-        <v>-0.0874069899321467</v>
+        <v>0.0486027143884261</v>
       </c>
       <c r="D98">
-        <v>-0.05340653746073926</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.009628459447407841</v>
+      </c>
+      <c r="E98">
+        <v>-0.128948433739668</v>
+      </c>
+      <c r="F98">
+        <v>-0.1989188996763823</v>
+      </c>
+      <c r="G98">
+        <v>-0.06635524946245482</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006279623800344174</v>
+        <v>0.007899120049441311</v>
       </c>
       <c r="C101">
-        <v>-0.004541285031981064</v>
+        <v>0.02086935176788656</v>
       </c>
       <c r="D101">
-        <v>-0.01939003795612146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01000878998299754</v>
+      </c>
+      <c r="E101">
+        <v>-0.01135566847370144</v>
+      </c>
+      <c r="F101">
+        <v>0.0106014267428314</v>
+      </c>
+      <c r="G101">
+        <v>0.1052028777459576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1032763447451461</v>
+        <v>0.1216555435203367</v>
       </c>
       <c r="C102">
-        <v>-0.05774696864269264</v>
+        <v>0.08843518361317655</v>
       </c>
       <c r="D102">
-        <v>-0.07683978877172278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>2.351929915435325e-05</v>
+      </c>
+      <c r="E102">
+        <v>0.04428247122891647</v>
+      </c>
+      <c r="F102">
+        <v>0.01801881038281561</v>
+      </c>
+      <c r="G102">
+        <v>0.01624444788631122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1514114594936302</v>
+        <v>0.0207181478377286</v>
       </c>
       <c r="C104">
-        <v>0.8510593795340148</v>
+        <v>-0.02876789156278365</v>
       </c>
       <c r="D104">
-        <v>-0.4851918380835141</v>
+        <v>-0.9864299108548729</v>
+      </c>
+      <c r="E104">
+        <v>0.08262169032092917</v>
+      </c>
+      <c r="F104">
+        <v>0.02280750094420706</v>
+      </c>
+      <c r="G104">
+        <v>-0.03674608749420901</v>
       </c>
     </row>
   </sheetData>
